--- a/src/main/openl/rules/TemplateRules.xlsx
+++ b/src/main/openl/rules/TemplateRules.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennislee/Devs/OpenLTabletsDojo/src/main/resources/openl/rules/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dennislee/Devs/OpenLTabletsDojo/src/main/openl/rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C2A25-0E1A-A74C-8538-7DF2FC1CF6AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A228014-E7A5-B944-AAD3-D5307127265F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,189 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Stanislav Shor</author>
-  </authors>
-  <commentList>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>This is so-called Decision Table Method Header. It consist of the keyword "Rules" and familiar java-like method signature</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">
-Rule column header. Rule column is used to to name particular rule rows for documentation and tracing purposes. It is also useful to create rule rows that span more than one cell vertically (this will be explained in one of the next tutorials)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t>Condition column header. Must start with "C"</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Return column header. Must start with "RET".  </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Condition expression. Must have type </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Courier New"/>
-            <family val="3"/>
-          </rPr>
-          <t>boolean.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> As you can see condition uses parameter </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Courier New"/>
-            <family val="3"/>
-          </rPr>
-          <t xml:space="preserve">hour </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>from Method Header and variable</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Courier New"/>
-            <family val="3"/>
-          </rPr>
-          <t xml:space="preserve"> min </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>that defines column data. When condition is evaluated for each row, the cell value from this row is assigned to variable</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Courier New"/>
-            <family val="3"/>
-          </rPr>
-          <t xml:space="preserve"> min</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">This action code is performed for each row where all conditions have been satisfied. The variable </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Courier New"/>
-            <family val="3"/>
-          </rPr>
-          <t>greeting</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve"> is substittuted with a cell value from the rule row</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
-  <si>
-    <t>Replace the table below with your own rules</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Rule</t>
   </si>
@@ -215,83 +34,44 @@
     <t>RET1</t>
   </si>
   <si>
-    <t>min &lt;= hour</t>
-  </si>
-  <si>
-    <t>hour &lt;= max</t>
-  </si>
-  <si>
-    <t>greeting</t>
-  </si>
-  <si>
-    <t>Test hello helloTest</t>
-  </si>
-  <si>
-    <t>Run hello helloRun</t>
-  </si>
-  <si>
-    <t>int min</t>
-  </si>
-  <si>
-    <t>int max</t>
-  </si>
-  <si>
-    <t>String greeting</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>_res_</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Greeting</t>
-  </si>
-  <si>
-    <t>Hour</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>Good Morning</t>
-  </si>
-  <si>
-    <t>R20</t>
-  </si>
-  <si>
-    <t>Good Afternoon</t>
-  </si>
-  <si>
-    <t>R30</t>
-  </si>
-  <si>
-    <t>Good Evening</t>
-  </si>
-  <si>
-    <t>R40</t>
-  </si>
-  <si>
-    <t>Good Night</t>
-  </si>
-  <si>
-    <t>Rules String hello(int hour)</t>
+    <t>cs == csActive</t>
+  </si>
+  <si>
+    <t>il == ilActive</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Claim Status</t>
+  </si>
+  <si>
+    <t>Rules Boolean isClaims(Boolean cs, Boolean il)</t>
+  </si>
+  <si>
+    <t>Boolean csActive</t>
+  </si>
+  <si>
+    <t>Boolean ilActive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,31 +90,6 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -370,7 +125,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -382,43 +137,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -624,34 +342,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -660,53 +350,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1046,257 +723,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+    <row r="2" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="28"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+    <row r="5" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="D8" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="32" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="27" t="s">
+      <c r="C9" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="C10" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17">
-        <v>11</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="30">
-        <v>7</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="28">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="20">
-        <v>12</v>
-      </c>
-      <c r="D10" s="21">
-        <v>17</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="30">
-        <v>13</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="28">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="20">
-        <v>18</v>
-      </c>
-      <c r="D11" s="21">
-        <v>21</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="30">
-        <v>21</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="24">
-        <v>22</v>
-      </c>
-      <c r="D12" s="25">
-        <v>23</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="30">
-        <v>22</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="28">
-        <v>22</v>
+      <c r="D10" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>